--- a/Curr/TeamStatsMisc_Curr.xlsx
+++ b/Curr/TeamStatsMisc_Curr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA/2019-2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/My codes/NBA_pred/Curr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A2C65C-7DF5-0040-9C98-9B2528B4F4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74960CF-5034-3C43-8302-1E1AF28C61C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16280" xr2:uid="{07E1D014-3552-C54A-95FD-398FB20A9AA6}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,13 +620,13 @@
         <v>16.8</v>
       </c>
       <c r="C2" s="2">
-        <v>18.899999999999999</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>19.600000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>17.600000000000001</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>17.8</v>
@@ -638,7 +638,7 @@
         <v>15.7</v>
       </c>
       <c r="I2" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2">
         <v>15</v>
@@ -668,7 +668,7 @@
         <v>14.2</v>
       </c>
       <c r="S2" s="2">
-        <v>16.399999999999999</v>
+        <v>14</v>
       </c>
       <c r="T2" s="2">
         <v>17.2</v>
@@ -715,13 +715,13 @@
         <v>12.6</v>
       </c>
       <c r="C3" s="2">
-        <v>14.3</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>11.9</v>
       </c>
       <c r="E3" s="2">
-        <v>14.4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
         <v>13.1</v>
@@ -733,7 +733,7 @@
         <v>11.7</v>
       </c>
       <c r="I3" s="2">
-        <v>12.3</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <v>14.3</v>
@@ -763,7 +763,7 @@
         <v>12.7</v>
       </c>
       <c r="S3" s="2">
-        <v>14.4</v>
+        <v>22</v>
       </c>
       <c r="T3" s="2">
         <v>12.7</v>
@@ -810,13 +810,13 @@
         <v>18.600000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>19.2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>19.399999999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>14.1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
         <v>15.5</v>
@@ -828,7 +828,7 @@
         <v>11.2</v>
       </c>
       <c r="I4" s="2">
-        <v>10.7</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2">
         <v>12.2</v>
@@ -858,7 +858,7 @@
         <v>13.7</v>
       </c>
       <c r="S4" s="2">
-        <v>17.2</v>
+        <v>7</v>
       </c>
       <c r="T4" s="2">
         <v>12.9</v>
@@ -905,13 +905,13 @@
         <v>50</v>
       </c>
       <c r="C5" s="2">
-        <v>53.2</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2">
         <v>47.3</v>
       </c>
       <c r="E5" s="2">
-        <v>48.6</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2">
         <v>48</v>
@@ -923,7 +923,7 @@
         <v>44.3</v>
       </c>
       <c r="I5" s="2">
-        <v>47.7</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2">
         <v>44.6</v>
@@ -953,7 +953,7 @@
         <v>44.3</v>
       </c>
       <c r="S5" s="2">
-        <v>49.4</v>
+        <v>48</v>
       </c>
       <c r="T5" s="2">
         <v>46.3</v>
@@ -1000,13 +1000,13 @@
         <v>16.3</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>16.8</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>14.6</v>
@@ -1018,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="1">
-        <v>16.899999999999999</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1">
         <v>14.5</v>
@@ -1048,7 +1048,7 @@
         <v>14.5</v>
       </c>
       <c r="S6" s="1">
-        <v>19.3</v>
+        <v>20</v>
       </c>
       <c r="T6" s="1">
         <v>16.3</v>
@@ -1095,13 +1095,13 @@
         <v>11.1</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>13.9</v>
       </c>
       <c r="E7" s="1">
-        <v>12.3</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1">
         <v>13.2</v>
@@ -1113,7 +1113,7 @@
         <v>12.3</v>
       </c>
       <c r="I7" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1">
         <v>13.4</v>
@@ -1143,7 +1143,7 @@
         <v>15.5</v>
       </c>
       <c r="S7" s="1">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="T7" s="1">
         <v>11.7</v>
@@ -1190,13 +1190,13 @@
         <v>13.5</v>
       </c>
       <c r="C8" s="1">
-        <v>16.8</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>12.6</v>
       </c>
       <c r="E8" s="1">
-        <v>13.9</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <v>13.4</v>
@@ -1208,7 +1208,7 @@
         <v>11.5</v>
       </c>
       <c r="I8" s="1">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1">
         <v>16.8</v>
@@ -1238,7 +1238,7 @@
         <v>15.3</v>
       </c>
       <c r="S8" s="1">
-        <v>15.9</v>
+        <v>7</v>
       </c>
       <c r="T8" s="1">
         <v>12.6</v>
@@ -1285,13 +1285,13 @@
         <v>38.799999999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>42.1</v>
       </c>
       <c r="E9" s="1">
-        <v>44.9</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>43.2</v>
@@ -1303,7 +1303,7 @@
         <v>44.4</v>
       </c>
       <c r="I9" s="1">
-        <v>46.3</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1">
         <v>48.8</v>
@@ -1333,7 +1333,7 @@
         <v>47.4</v>
       </c>
       <c r="S9" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T9" s="1">
         <v>46.3</v>
@@ -1399,61 +1399,42 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1461,10 +1442,6 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1472,10 +1449,6 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1483,10 +1456,6 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1494,10 +1463,6 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1505,10 +1470,6 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1516,10 +1477,6 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1527,10 +1484,6 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
